--- a/fiis.xlsx
+++ b/fiis.xlsx
@@ -82,13 +82,13 @@
     <t>Grand Plaza Shopping</t>
   </si>
   <si>
-    <t>72,48</t>
-  </si>
-  <si>
-    <t>7,09</t>
-  </si>
-  <si>
-    <t>0,79</t>
+    <t>72,00</t>
+  </si>
+  <si>
+    <t>7,14</t>
+  </si>
+  <si>
+    <t>0,78</t>
   </si>
   <si>
     <t>19.186</t>
@@ -100,13 +100,13 @@
     <t>91,79</t>
   </si>
   <si>
-    <t>1.120.197.062</t>
-  </si>
-  <si>
-    <t>884.533.743</t>
-  </si>
-  <si>
-    <t>102.179.47</t>
+    <t>1.120.197,062</t>
+  </si>
+  <si>
+    <t>878.675,904</t>
+  </si>
+  <si>
+    <t>98.958,50</t>
   </si>
   <si>
     <t>0,4500</t>
@@ -118,7 +118,7 @@
     <t>Passiva</t>
   </si>
   <si>
-    <t>1.013</t>
+    <t>510</t>
   </si>
   <si>
     <t>Shoppings</t>
@@ -136,13 +136,13 @@
     <t>XP Log</t>
   </si>
   <si>
-    <t>98,02</t>
-  </si>
-  <si>
-    <t>7,64</t>
-  </si>
-  <si>
-    <t>0,88</t>
+    <t>99,05</t>
+  </si>
+  <si>
+    <t>7,58</t>
+  </si>
+  <si>
+    <t>0,89</t>
   </si>
   <si>
     <t>279.723</t>
@@ -154,13 +154,13 @@
     <t>111,51</t>
   </si>
   <si>
-    <t>3.021.986.048</t>
-  </si>
-  <si>
-    <t>2.656.445.999</t>
-  </si>
-  <si>
-    <t>7.643.785.33</t>
+    <t>3.021.986,048</t>
+  </si>
+  <si>
+    <t>2.684.360,092</t>
+  </si>
+  <si>
+    <t>7.507.442,26</t>
   </si>
   <si>
     <t>0,6600</t>
@@ -169,7 +169,7 @@
     <t>Ativa</t>
   </si>
   <si>
-    <t>69.749</t>
+    <t>90.062</t>
   </si>
   <si>
     <t>LogÃ­stica</t>
@@ -610,7 +610,7 @@
       <c r="L2" s="1" t="s">
         <v>29</v>
       </c>
-      <c r="M2" t="s">
+      <c r="M2" s="1" t="s">
         <v>30</v>
       </c>
       <c r="N2" t="s">
@@ -666,7 +666,7 @@
       <c r="L3" s="1" t="s">
         <v>47</v>
       </c>
-      <c r="M3" t="s">
+      <c r="M3" s="1" t="s">
         <v>48</v>
       </c>
       <c r="N3" t="s">
